--- a/Assignment(modual_2)/Testscenario.xlsx
+++ b/Assignment(modual_2)/Testscenario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7905" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7905" firstSheet="15" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="pen" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,15 @@
     <sheet name="WhatsApp_payment" sheetId="16" r:id="rId16"/>
     <sheet name="WhatsApp_camara" sheetId="17" r:id="rId17"/>
     <sheet name="Onlineshoppingtobuyproduct(Flip" sheetId="18" r:id="rId18"/>
+    <sheet name="pen_stand" sheetId="19" r:id="rId19"/>
+    <sheet name="Instagramvideocall" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="1063">
   <si>
     <t>Sr.No</t>
   </si>
@@ -3007,6 +3009,231 @@
   <si>
     <t>Verify if fan is not started when electric switch ON and also fan is not stop when electric switch is OFF, it is controlled to difficult.</t>
   </si>
+  <si>
+    <t>Test scenario positive</t>
+  </si>
+  <si>
+    <t>Test scenario nagative</t>
+  </si>
+  <si>
+    <t>Pen stand</t>
+  </si>
+  <si>
+    <t>Sr.no.</t>
+  </si>
+  <si>
+    <t>Verify that the length and the diameter of pen stand  are as per the specificatins.</t>
+  </si>
+  <si>
+    <t>Verify the outer body of material of pen stand. Check if it is metalic, plastic, or wood or any material specified in the requirement specifications.</t>
+  </si>
+  <si>
+    <t>Verify that color of the outer body of the pen stand. It should be as per the specifications.</t>
+  </si>
+  <si>
+    <t>Verify the pen stand the brand name and/or logo of the company creating the on the  pen stand should be clearly visible.</t>
+  </si>
+  <si>
+    <t>Verify that any information displayed on the pen stand should be legible and clearly visible.</t>
+  </si>
+  <si>
+    <t>Verify user is able to stand the stand is wooden stand, it is stand properly on the Table or any desk properly.</t>
+  </si>
+  <si>
+    <t>Verify user is able to put the pen into the wooden pen stand properly.</t>
+  </si>
+  <si>
+    <t>Verify is pen stand is wooden stand, check its weight of the pen stand. It should be as per the specifications. In case not mentioned in the specifications, the weight should not be too heavy to impact its user not carried out easily.</t>
+  </si>
+  <si>
+    <t>Verify the color of the pen stand.</t>
+  </si>
+  <si>
+    <t>Verify the pen stand has divided into two parts in singal pen stand.</t>
+  </si>
+  <si>
+    <t>Verify the user is able to keep into maximum pens in penstand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify if pen stand on the table or any desk, user is able to easily </t>
+  </si>
+  <si>
+    <t>Verify that pen stand is use for office use or not.</t>
+  </si>
+  <si>
+    <t>Verify that user is able to carried out side.</t>
+  </si>
+  <si>
+    <t>Verify the pen stand quality, if pen stand has been fallen, penstand is reuse or not.</t>
+  </si>
+  <si>
+    <t>Verify that if penstand is made of wood, how does it stand up to the touch of water.</t>
+  </si>
+  <si>
+    <t>Verify the hegiht of the pen stand, stand on table.</t>
+  </si>
+  <si>
+    <t>Verify the paint's type and color.</t>
+  </si>
+  <si>
+    <t>Verify the penstand is still material stand.</t>
+  </si>
+  <si>
+    <t>Verify that penstand still quality is when pen stand fallel, quality is maintain or not.</t>
+  </si>
+  <si>
+    <t>Verify that penstand is plastick material, it is easily carried outside or not.</t>
+  </si>
+  <si>
+    <t>Verify that penstand diameter or length is too much, so it is not usable for offoce or house hold.</t>
+  </si>
+  <si>
+    <t>Verify that outer body of pen stand is wooden material, when any time pen stand touch water, it is not reusable.</t>
+  </si>
+  <si>
+    <t>Verify if color of the outer body of pen stand is proper when pen stand is new but after some time, it is not lookable.</t>
+  </si>
+  <si>
+    <t>Verify pen stand is any popular brand, but its quality is not maintable.</t>
+  </si>
+  <si>
+    <t>Verify if wooden pen stand, it is fall down, sometimes it will be happen is wooden pen stand is crack.</t>
+  </si>
+  <si>
+    <t>Verify the type of pen stand, whether it is a wooden or steel  or papar stand.</t>
+  </si>
+  <si>
+    <t>Verify if ther is steel stand, it makes a lot of noise when it falls down.</t>
+  </si>
+  <si>
+    <t>Verify if pen stand is plastic pen stand, it breaks when dropped.</t>
+  </si>
+  <si>
+    <t>Verify there is wooden stand, it can also cause damage to the body by falling on the feet.</t>
+  </si>
+  <si>
+    <t>Positive Test scenario</t>
+  </si>
+  <si>
+    <t>Nagative Test scenario</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test scenario for Instagram videocall</t>
+  </si>
+  <si>
+    <t>Verify that user is able to video call on instagram.</t>
+  </si>
+  <si>
+    <t>Verify that call section (video call or audio call) is avilable or not.</t>
+  </si>
+  <si>
+    <t>Verify that call history of video call is avilable if user call any one some time or some days before</t>
+  </si>
+  <si>
+    <t>Verify that call history shows the called date and time.</t>
+  </si>
+  <si>
+    <t>Verify that search is working fine or not</t>
+  </si>
+  <si>
+    <t>Verify that Remove from call log( history) option working fine or not by removing history of any person.</t>
+  </si>
+  <si>
+    <t>Verify that Block function is working correctly</t>
+  </si>
+  <si>
+    <t>Verify that if you want to do the call a person who is not avilable in history then check that new call button is avilable or not.</t>
+  </si>
+  <si>
+    <t>Verify that if you want to do the call a person who is  not avilable in history then check that new call button is avilable or not.</t>
+  </si>
+  <si>
+    <t>Verify that user can allow  your camara and mirophone to others can see and hear you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify if user don't want to allow to use camara and microphne, so user is able to mute this option </t>
+  </si>
+  <si>
+    <t>Verify that user is able to click on camara and microphone.</t>
+  </si>
+  <si>
+    <t>Verify that user is able to click on only microphone</t>
+  </si>
+  <si>
+    <t>Verify that if user is call to videocall to his friends and can speaker option is available or not</t>
+  </si>
+  <si>
+    <t>Verify that setting option is avilable or not.</t>
+  </si>
+  <si>
+    <t>Verify user is able to click on able to end the call.</t>
+  </si>
+  <si>
+    <t>Verify that user want to add more person in instagram video call, option is avilable or not.</t>
+  </si>
+  <si>
+    <t>Verify if user have not account on instagram, so user cannot call on videocall.</t>
+  </si>
+  <si>
+    <t>Verify that user have not internet, so user cannot able to for videocall.</t>
+  </si>
+  <si>
+    <t>Verify that user can't see history of videocall.</t>
+  </si>
+  <si>
+    <t>Verify if user have not friend list user not able to find and search any friends.</t>
+  </si>
+  <si>
+    <t>Verify that search is not working fine, so user is not able to find his friends and family menbers</t>
+  </si>
+  <si>
+    <t>Verify that ramove from call log (History) opotion is there or not.</t>
+  </si>
+  <si>
+    <t>Verify if user want to remove call log (History) but remove option not is there.</t>
+  </si>
+  <si>
+    <t>Verify if user click on remove history and but remove some other history.</t>
+  </si>
+  <si>
+    <t>Verify if user don't want allow any fack user, who videocall on instagram, but block option is not avilable.</t>
+  </si>
+  <si>
+    <t>Verify if user want to call any particular person, but that person is not avilable to ii history of call log.</t>
+  </si>
+  <si>
+    <t>Verify if user want to do call a person but who is not avilable in history then new call button is not avilable.</t>
+  </si>
+  <si>
+    <t>Verify that user can call and receive Instagram calls from person in his friend list.</t>
+  </si>
+  <si>
+    <t>Verify it may be sometimes it will happens is any friend is call to a person on videocall, but user is not able to known is who is calling. That time user not receive call properly.</t>
+  </si>
+  <si>
+    <t>Verify if user dont't allow to use microphone and camara but it is on automatically.</t>
+  </si>
+  <si>
+    <t>Verify if user don't want to allow microphone and camara, is there no any option to give mute the camara.</t>
+  </si>
+  <si>
+    <t>Verify if user want to use micropjone and camara, while he do call someone but user is not able to click on button.</t>
+  </si>
+  <si>
+    <t>Verify if user is want to click on only microphone, but it not click properly.</t>
+  </si>
+  <si>
+    <t>Verify if user is call to videocall to his friends and speaker option not is there</t>
+  </si>
+  <si>
+    <t>Verify if user want to setting some related to call, but setting option is not avialable.</t>
+  </si>
+  <si>
+    <t>Verify if user want to add some more pepole on video call, but added option is not avilable.</t>
+  </si>
+  <si>
+    <t>Verify if user want to end the call, but end call button is not clickable proprly.</t>
+  </si>
 </sst>
 </file>
 
@@ -3015,7 +3242,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3183,6 +3410,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3231,7 +3471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3412,6 +3652,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3709,9 +3967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G186"/>
   <sheetViews>
-    <sheetView topLeftCell="L16" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView topLeftCell="F1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
   <cols>
@@ -10480,8 +10736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C127"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10496,11 +10752,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="69" customFormat="1" ht="60" customHeight="1">
-      <c r="B3" s="69" t="s">
-        <v>764</v>
-      </c>
-    </row>
+    <row r="3" spans="1:3" s="69" customFormat="1" ht="60" customHeight="1"/>
     <row r="4" spans="1:3" ht="61.5" hidden="1" customHeight="1"/>
     <row r="5" spans="1:3" ht="79.5" customHeight="1">
       <c r="A5" s="58" t="s">
@@ -11288,7 +11540,7 @@
   <dimension ref="A2:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11764,8 +12016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C154"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12690,6 +12942,578 @@
       <c r="A154" s="61"/>
       <c r="B154" s="61"/>
       <c r="C154" s="61"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C94"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="54.42578125" customWidth="1"/>
+    <col min="3" max="3" width="64.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="23.25">
+      <c r="B2" s="75" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="74" customFormat="1"/>
+    <row r="8" spans="1:3" s="77" customFormat="1" ht="25.5">
+      <c r="A8" s="76" t="s">
+        <v>991</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>988</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="36">
+      <c r="A9" s="61">
+        <v>1</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>992</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="72">
+      <c r="A10" s="61">
+        <v>2</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>993</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="54">
+      <c r="A11" s="61">
+        <v>3</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>994</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="54">
+      <c r="A12" s="61">
+        <v>4</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>995</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="54">
+      <c r="A13" s="61">
+        <v>5</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>996</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="36">
+      <c r="A14" s="61">
+        <v>6</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="54">
+      <c r="A15" s="61">
+        <v>7</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>997</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="36">
+      <c r="A16" s="61">
+        <v>8</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>998</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="108">
+      <c r="A17" s="61">
+        <v>9</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>999</v>
+      </c>
+      <c r="C17" s="61"/>
+    </row>
+    <row r="18" spans="1:3" ht="18">
+      <c r="A18" s="61">
+        <v>10</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="61"/>
+    </row>
+    <row r="19" spans="1:3" ht="36">
+      <c r="A19" s="61">
+        <v>11</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C19" s="61"/>
+    </row>
+    <row r="20" spans="1:3" ht="36">
+      <c r="A20" s="61">
+        <v>12</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C20" s="61"/>
+    </row>
+    <row r="21" spans="1:3" ht="36">
+      <c r="A21" s="61">
+        <v>13</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C21" s="61"/>
+    </row>
+    <row r="22" spans="1:3" ht="36">
+      <c r="A22" s="61">
+        <v>14</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C22" s="61"/>
+    </row>
+    <row r="23" spans="1:3" ht="18">
+      <c r="A23" s="61">
+        <v>15</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C23" s="61"/>
+    </row>
+    <row r="24" spans="1:3" ht="36">
+      <c r="A24" s="61">
+        <v>16</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C24" s="61"/>
+    </row>
+    <row r="25" spans="1:3" ht="36">
+      <c r="A25" s="61">
+        <v>17</v>
+      </c>
+      <c r="B25" s="61" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C25" s="61"/>
+    </row>
+    <row r="26" spans="1:3" ht="36">
+      <c r="A26" s="61">
+        <v>18</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C26" s="61"/>
+    </row>
+    <row r="27" spans="1:3" ht="18">
+      <c r="A27" s="61">
+        <v>19</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C27" s="61"/>
+    </row>
+    <row r="28" spans="1:3" ht="18">
+      <c r="A28" s="61">
+        <v>20</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C28" s="61"/>
+    </row>
+    <row r="29" spans="1:3" ht="36">
+      <c r="A29" s="61">
+        <v>21</v>
+      </c>
+      <c r="B29" s="61" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C29" s="61"/>
+    </row>
+    <row r="30" spans="1:3" ht="36">
+      <c r="A30" s="61">
+        <v>22</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C30" s="61"/>
+    </row>
+    <row r="31" spans="1:3" ht="18">
+      <c r="A31" s="61"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+    </row>
+    <row r="32" spans="1:3" ht="18">
+      <c r="A32" s="61"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+    </row>
+    <row r="33" spans="1:3" ht="18">
+      <c r="A33" s="61"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+    </row>
+    <row r="34" spans="1:3" ht="18">
+      <c r="A34" s="61"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+    </row>
+    <row r="35" spans="1:3" ht="18">
+      <c r="A35" s="61"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+    </row>
+    <row r="36" spans="1:3" ht="18">
+      <c r="A36" s="61"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+    </row>
+    <row r="37" spans="1:3" ht="18">
+      <c r="A37" s="61"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+    </row>
+    <row r="38" spans="1:3" ht="18">
+      <c r="A38" s="61"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+    </row>
+    <row r="39" spans="1:3" ht="18">
+      <c r="A39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+    </row>
+    <row r="40" spans="1:3" ht="18">
+      <c r="A40" s="61"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
+    </row>
+    <row r="41" spans="1:3" ht="18">
+      <c r="A41" s="61"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+    </row>
+    <row r="42" spans="1:3" ht="18">
+      <c r="A42" s="61"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+    </row>
+    <row r="43" spans="1:3" ht="18">
+      <c r="A43" s="61"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
+    </row>
+    <row r="44" spans="1:3" ht="18">
+      <c r="A44" s="61"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+    </row>
+    <row r="45" spans="1:3" ht="18">
+      <c r="A45" s="61"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+    </row>
+    <row r="46" spans="1:3" ht="18">
+      <c r="A46" s="61"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+    </row>
+    <row r="47" spans="1:3" ht="18">
+      <c r="A47" s="61"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="61"/>
+    </row>
+    <row r="48" spans="1:3" ht="18">
+      <c r="A48" s="61"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+    </row>
+    <row r="49" spans="1:3" ht="18">
+      <c r="A49" s="61"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+    </row>
+    <row r="50" spans="1:3" ht="18">
+      <c r="A50" s="61"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
+    </row>
+    <row r="51" spans="1:3" ht="18">
+      <c r="A51" s="61"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="61"/>
+    </row>
+    <row r="52" spans="1:3" ht="18">
+      <c r="A52" s="61"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+    </row>
+    <row r="53" spans="1:3" ht="18">
+      <c r="A53" s="61"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+    </row>
+    <row r="54" spans="1:3" ht="18">
+      <c r="A54" s="61"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="61"/>
+    </row>
+    <row r="55" spans="1:3" ht="18">
+      <c r="A55" s="61"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="61"/>
+    </row>
+    <row r="56" spans="1:3" ht="18">
+      <c r="A56" s="61"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
+    </row>
+    <row r="57" spans="1:3" ht="18">
+      <c r="A57" s="61"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="61"/>
+    </row>
+    <row r="58" spans="1:3" ht="18">
+      <c r="A58" s="61"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="61"/>
+    </row>
+    <row r="59" spans="1:3" ht="18">
+      <c r="A59" s="61"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="61"/>
+    </row>
+    <row r="60" spans="1:3" ht="18">
+      <c r="A60" s="61"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="61"/>
+    </row>
+    <row r="61" spans="1:3" ht="18">
+      <c r="A61" s="61"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="61"/>
+    </row>
+    <row r="62" spans="1:3" ht="18">
+      <c r="A62" s="61"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="61"/>
+    </row>
+    <row r="63" spans="1:3" ht="18">
+      <c r="A63" s="61"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="61"/>
+    </row>
+    <row r="64" spans="1:3" ht="18">
+      <c r="A64" s="61"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="61"/>
+    </row>
+    <row r="65" spans="1:3" ht="18">
+      <c r="A65" s="61"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="61"/>
+    </row>
+    <row r="66" spans="1:3" ht="18">
+      <c r="A66" s="61"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="61"/>
+    </row>
+    <row r="67" spans="1:3" ht="18">
+      <c r="A67" s="60"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="60"/>
+    </row>
+    <row r="68" spans="1:3" ht="18">
+      <c r="A68" s="60"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="60"/>
+    </row>
+    <row r="69" spans="1:3" ht="18">
+      <c r="A69" s="60"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="60"/>
+    </row>
+    <row r="70" spans="1:3" ht="18">
+      <c r="A70" s="60"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="60"/>
+    </row>
+    <row r="71" spans="1:3" ht="18">
+      <c r="A71" s="60"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="60"/>
+    </row>
+    <row r="72" spans="1:3" ht="18">
+      <c r="A72" s="60"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="60"/>
+    </row>
+    <row r="73" spans="1:3" ht="18">
+      <c r="A73" s="60"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="60"/>
+    </row>
+    <row r="74" spans="1:3" ht="18">
+      <c r="A74" s="60"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="60"/>
+    </row>
+    <row r="75" spans="1:3" ht="18">
+      <c r="A75" s="60"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="60"/>
+    </row>
+    <row r="76" spans="1:3" ht="18">
+      <c r="A76" s="60"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="60"/>
+    </row>
+    <row r="77" spans="1:3" ht="18">
+      <c r="A77" s="60"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="60"/>
+    </row>
+    <row r="78" spans="1:3" ht="18">
+      <c r="A78" s="60"/>
+      <c r="B78" s="60"/>
+      <c r="C78" s="60"/>
+    </row>
+    <row r="79" spans="1:3" ht="18">
+      <c r="A79" s="60"/>
+      <c r="B79" s="60"/>
+      <c r="C79" s="60"/>
+    </row>
+    <row r="80" spans="1:3" ht="18">
+      <c r="A80" s="60"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="60"/>
+    </row>
+    <row r="81" spans="1:3" ht="18">
+      <c r="A81" s="60"/>
+      <c r="B81" s="60"/>
+      <c r="C81" s="60"/>
+    </row>
+    <row r="82" spans="1:3" ht="18">
+      <c r="A82" s="60"/>
+      <c r="B82" s="60"/>
+      <c r="C82" s="60"/>
+    </row>
+    <row r="83" spans="1:3" ht="18">
+      <c r="A83" s="60"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="60"/>
+    </row>
+    <row r="84" spans="1:3" ht="18">
+      <c r="A84" s="60"/>
+      <c r="B84" s="60"/>
+      <c r="C84" s="60"/>
+    </row>
+    <row r="85" spans="1:3" ht="18">
+      <c r="A85" s="60"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="60"/>
+    </row>
+    <row r="86" spans="1:3" ht="18">
+      <c r="A86" s="60"/>
+      <c r="B86" s="60"/>
+      <c r="C86" s="60"/>
+    </row>
+    <row r="87" spans="1:3" ht="18">
+      <c r="A87" s="60"/>
+      <c r="B87" s="60"/>
+      <c r="C87" s="60"/>
+    </row>
+    <row r="88" spans="1:3" ht="18">
+      <c r="A88" s="60"/>
+      <c r="B88" s="60"/>
+      <c r="C88" s="60"/>
+    </row>
+    <row r="89" spans="1:3" ht="18">
+      <c r="A89" s="60"/>
+      <c r="B89" s="60"/>
+      <c r="C89" s="60"/>
+    </row>
+    <row r="90" spans="1:3" ht="18">
+      <c r="A90" s="60"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="60"/>
+    </row>
+    <row r="91" spans="1:3" ht="18">
+      <c r="A91" s="60"/>
+      <c r="B91" s="60"/>
+      <c r="C91" s="60"/>
+    </row>
+    <row r="92" spans="1:3" ht="18">
+      <c r="A92" s="60"/>
+      <c r="B92" s="60"/>
+      <c r="C92" s="60"/>
+    </row>
+    <row r="93" spans="1:3" ht="18">
+      <c r="A93" s="60"/>
+      <c r="B93" s="60"/>
+      <c r="C93" s="60"/>
+    </row>
+    <row r="94" spans="1:3" ht="18">
+      <c r="A94" s="60"/>
+      <c r="B94" s="60"/>
+      <c r="C94" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13815,6 +14639,556 @@
       <c r="A180" s="12"/>
       <c r="B180" s="12"/>
       <c r="C180" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="54.42578125" customWidth="1"/>
+    <col min="3" max="3" width="63.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="23.25">
+      <c r="B2" s="75" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="78" customFormat="1" ht="40.5">
+      <c r="A5" s="58" t="s">
+        <v>991</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="36">
+      <c r="A6" s="65">
+        <v>1</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="36">
+      <c r="A7" s="65">
+        <v>2</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="54">
+      <c r="A8" s="65">
+        <v>3</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="36">
+      <c r="A9" s="65">
+        <v>4</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="36">
+      <c r="A10" s="65">
+        <v>5</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="36">
+      <c r="A11" s="65">
+        <v>6</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="54">
+      <c r="A12" s="65">
+        <v>7</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="54">
+      <c r="A13" s="65">
+        <v>8</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="54">
+      <c r="A14" s="65">
+        <v>9</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="54">
+      <c r="A15" s="65">
+        <v>10</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="72">
+      <c r="A16" s="65">
+        <v>11</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="36">
+      <c r="A17" s="65">
+        <v>12</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="54">
+      <c r="A18" s="65">
+        <v>13</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="54">
+      <c r="A19" s="65">
+        <v>14</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="36">
+      <c r="A20" s="65">
+        <v>15</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="54">
+      <c r="A21" s="65">
+        <v>16</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="36">
+      <c r="A22" s="65">
+        <v>17</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="54">
+      <c r="A23" s="65">
+        <v>18</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="36">
+      <c r="A24" s="65">
+        <v>19</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18">
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+    </row>
+    <row r="26" spans="1:3" ht="18">
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+    </row>
+    <row r="27" spans="1:3" ht="18">
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+    </row>
+    <row r="28" spans="1:3" ht="18">
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+    </row>
+    <row r="29" spans="1:3" ht="18">
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+    </row>
+    <row r="30" spans="1:3" ht="18">
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+    </row>
+    <row r="31" spans="1:3" ht="18">
+      <c r="A31" s="65"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+    </row>
+    <row r="32" spans="1:3" ht="18">
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+    </row>
+    <row r="33" spans="1:3" ht="18">
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+    </row>
+    <row r="34" spans="1:3" ht="18">
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+    </row>
+    <row r="35" spans="1:3" ht="18.75">
+      <c r="A35" s="79"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="79"/>
+    </row>
+    <row r="36" spans="1:3" ht="18.75">
+      <c r="A36" s="79"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
+    </row>
+    <row r="37" spans="1:3" ht="18.75">
+      <c r="A37" s="79"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+    </row>
+    <row r="38" spans="1:3" ht="18.75">
+      <c r="A38" s="79"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
+    </row>
+    <row r="39" spans="1:3" ht="18.75">
+      <c r="A39" s="79"/>
+      <c r="B39" s="79"/>
+      <c r="C39" s="79"/>
+    </row>
+    <row r="40" spans="1:3" ht="18.75">
+      <c r="A40" s="79"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="79"/>
+    </row>
+    <row r="41" spans="1:3" ht="18.75">
+      <c r="A41" s="79"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
+    </row>
+    <row r="42" spans="1:3" ht="18.75">
+      <c r="A42" s="79"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="79"/>
+    </row>
+    <row r="43" spans="1:3" ht="18.75">
+      <c r="A43" s="79"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="79"/>
+    </row>
+    <row r="44" spans="1:3" ht="18.75">
+      <c r="A44" s="79"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="79"/>
+    </row>
+    <row r="45" spans="1:3" ht="18.75">
+      <c r="A45" s="79"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="79"/>
+    </row>
+    <row r="46" spans="1:3" ht="18.75">
+      <c r="A46" s="79"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="79"/>
+    </row>
+    <row r="47" spans="1:3" ht="18.75">
+      <c r="A47" s="79"/>
+      <c r="B47" s="79"/>
+      <c r="C47" s="79"/>
+    </row>
+    <row r="48" spans="1:3" ht="18.75">
+      <c r="A48" s="79"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="79"/>
+    </row>
+    <row r="49" spans="1:3" ht="18.75">
+      <c r="A49" s="79"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="79"/>
+    </row>
+    <row r="50" spans="1:3" ht="18.75">
+      <c r="A50" s="79"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="79"/>
+    </row>
+    <row r="51" spans="1:3" ht="18.75">
+      <c r="A51" s="79"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="79"/>
+    </row>
+    <row r="52" spans="1:3" ht="18.75">
+      <c r="A52" s="79"/>
+      <c r="B52" s="79"/>
+      <c r="C52" s="79"/>
+    </row>
+    <row r="53" spans="1:3" ht="18.75">
+      <c r="A53" s="79"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="79"/>
+    </row>
+    <row r="54" spans="1:3" ht="18.75">
+      <c r="A54" s="79"/>
+      <c r="B54" s="79"/>
+      <c r="C54" s="79"/>
+    </row>
+    <row r="55" spans="1:3" ht="18.75">
+      <c r="A55" s="79"/>
+      <c r="B55" s="79"/>
+      <c r="C55" s="79"/>
+    </row>
+    <row r="56" spans="1:3" ht="18.75">
+      <c r="A56" s="79"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="79"/>
+    </row>
+    <row r="57" spans="1:3" ht="18.75">
+      <c r="A57" s="79"/>
+      <c r="B57" s="79"/>
+      <c r="C57" s="79"/>
+    </row>
+    <row r="58" spans="1:3" ht="18.75">
+      <c r="A58" s="79"/>
+      <c r="B58" s="79"/>
+      <c r="C58" s="79"/>
+    </row>
+    <row r="59" spans="1:3" ht="18.75">
+      <c r="A59" s="79"/>
+      <c r="B59" s="79"/>
+      <c r="C59" s="79"/>
+    </row>
+    <row r="60" spans="1:3" ht="18.75">
+      <c r="A60" s="79"/>
+      <c r="B60" s="79"/>
+      <c r="C60" s="79"/>
+    </row>
+    <row r="61" spans="1:3" ht="18.75">
+      <c r="A61" s="79"/>
+      <c r="B61" s="79"/>
+      <c r="C61" s="79"/>
+    </row>
+    <row r="62" spans="1:3" ht="18.75">
+      <c r="A62" s="79"/>
+      <c r="B62" s="79"/>
+      <c r="C62" s="79"/>
+    </row>
+    <row r="63" spans="1:3" ht="18.75">
+      <c r="A63" s="79"/>
+      <c r="B63" s="79"/>
+      <c r="C63" s="79"/>
+    </row>
+    <row r="64" spans="1:3" ht="18.75">
+      <c r="A64" s="79"/>
+      <c r="B64" s="79"/>
+      <c r="C64" s="79"/>
+    </row>
+    <row r="65" spans="1:3" ht="18.75">
+      <c r="A65" s="79"/>
+      <c r="B65" s="79"/>
+      <c r="C65" s="79"/>
+    </row>
+    <row r="66" spans="1:3" ht="18.75">
+      <c r="A66" s="79"/>
+      <c r="B66" s="79"/>
+      <c r="C66" s="79"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14720,8 +16094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
